--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43455,6 +43455,41 @@
         <v>2200</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43490,6 +43490,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>28800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43525,6 +43525,41 @@
         <v>28800</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43560,6 +43560,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43595,6 +43595,41 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43630,6 +43630,41 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>77700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43665,6 +43665,41 @@
         <v>77700</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>70500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43700,6 +43700,41 @@
         <v>70500</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43735,6 +43735,41 @@
         <v>500</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>5500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43770,6 +43770,41 @@
         <v>5500</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>3700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43805,6 +43805,41 @@
         <v>3700</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>21100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43840,6 +43840,41 @@
         <v>21100</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>114800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43875,6 +43875,76 @@
         <v>114800</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>57000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43945,6 +43945,76 @@
         <v>57000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>4700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44015,6 +44015,41 @@
         <v>4700</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44050,6 +44050,41 @@
         <v>100</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44085,6 +44085,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I1236" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44122,6 +44122,41 @@
         </is>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>75000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44157,6 +44157,76 @@
         <v>75000</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>27400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44227,6 +44227,41 @@
         <v>27400</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>19000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44262,6 +44262,41 @@
         <v>19000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>38400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2427"/>
+  <dimension ref="A1:I2428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85807,6 +85807,41 @@
         <v>38400</v>
       </c>
     </row>
+    <row r="2428">
+      <c r="A2428" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2428" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2428" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D2428" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E2428" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F2428" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G2428" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H2428" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I2428" t="n">
+        <v>57900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2428"/>
+  <dimension ref="A1:I2429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85842,6 +85842,41 @@
         <v>57900</v>
       </c>
     </row>
+    <row r="2429">
+      <c r="A2429" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2429" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2429" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D2429" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E2429" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F2429" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G2429" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H2429" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2429" t="n">
+        <v>17500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2429"/>
+  <dimension ref="A1:I2430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85877,6 +85877,41 @@
         <v>17500</v>
       </c>
     </row>
+    <row r="2430">
+      <c r="A2430" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2430" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2430" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D2430" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E2430" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2430" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2430" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H2430" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I2430" t="n">
+        <v>38400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2430"/>
+  <dimension ref="A1:I2431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85912,6 +85912,41 @@
         <v>38400</v>
       </c>
     </row>
+    <row r="2431">
+      <c r="A2431" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2431" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2431" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D2431" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E2431" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F2431" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G2431" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H2431" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I2431" t="n">
+        <v>181300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2431"/>
+  <dimension ref="A1:I2432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85947,6 +85947,41 @@
         <v>181300</v>
       </c>
     </row>
+    <row r="2432">
+      <c r="A2432" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2432" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2432" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D2432" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E2432" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F2432" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2432" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H2432" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2432" t="n">
+        <v>17300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2432"/>
+  <dimension ref="A1:I2433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85982,6 +85982,43 @@
         <v>17300</v>
       </c>
     </row>
+    <row r="2433">
+      <c r="A2433" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2433" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2433" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D2433" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E2433" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2433" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2433" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2433" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2433" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2433"/>
+  <dimension ref="A1:I2434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86019,6 +86019,41 @@
         </is>
       </c>
     </row>
+    <row r="2434">
+      <c r="A2434" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2434" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2434" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D2434" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E2434" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F2434" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G2434" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H2434" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2434" t="n">
+        <v>27500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2434"/>
+  <dimension ref="A1:I2435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86054,6 +86054,41 @@
         <v>27500</v>
       </c>
     </row>
+    <row r="2435">
+      <c r="A2435" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2435" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2435" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D2435" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E2435" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2435" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G2435" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2435" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I2435" t="n">
+        <v>24000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2435"/>
+  <dimension ref="A1:I2436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86089,6 +86089,43 @@
         <v>24000</v>
       </c>
     </row>
+    <row r="2436">
+      <c r="A2436" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2436" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2436" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D2436" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E2436" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F2436" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G2436" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H2436" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I2436" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2436"/>
+  <dimension ref="A1:I2437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86126,6 +86126,43 @@
         </is>
       </c>
     </row>
+    <row r="2437">
+      <c r="A2437" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2437" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2437" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D2437" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E2437" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F2437" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G2437" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H2437" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I2437" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2437"/>
+  <dimension ref="A1:I2438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86163,6 +86163,43 @@
         </is>
       </c>
     </row>
+    <row r="2438">
+      <c r="A2438" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2438" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2438" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D2438" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E2438" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F2438" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G2438" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H2438" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I2438" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2438"/>
+  <dimension ref="A1:I2439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86200,6 +86200,43 @@
         </is>
       </c>
     </row>
+    <row r="2439">
+      <c r="A2439" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2439" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2439" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D2439" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E2439" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F2439" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G2439" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H2439" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I2439" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2439"/>
+  <dimension ref="A1:I2440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86237,6 +86237,43 @@
         </is>
       </c>
     </row>
+    <row r="2440">
+      <c r="A2440" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2440" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2440" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D2440" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E2440" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F2440" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G2440" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H2440" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I2440" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2440"/>
+  <dimension ref="A1:I2441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86274,6 +86274,41 @@
         </is>
       </c>
     </row>
+    <row r="2441">
+      <c r="A2441" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2441" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2441" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D2441" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E2441" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F2441" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G2441" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H2441" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I2441" t="n">
+        <v>24700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4952.xlsx
+++ b/data/4952.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2441"/>
+  <dimension ref="A1:I2442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86309,6 +86309,41 @@
         <v>24700</v>
       </c>
     </row>
+    <row r="2442">
+      <c r="A2442" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2442" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2442" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="D2442" t="inlineStr">
+        <is>
+          <t>AHP</t>
+        </is>
+      </c>
+      <c r="E2442" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F2442" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G2442" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H2442" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I2442" t="n">
+        <v>6300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
